--- a/insert information to supabase/data/Defensa_Agroindustria_Con_Tema.xlsx
+++ b/insert information to supabase/data/Defensa_Agroindustria_Con_Tema.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Dapper\web-scrapping-deepear\insert information to supabase\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8604FAE7-3A62-4525-8C85-AE361403BC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -250,9 +256,6 @@
   </si>
   <si>
     <t>Por medio del cual se modifica y adiciona el Capítulo 2 de la Parte 16 del Libro 2 del Decreto 1071 de 2015, Decreto Único Reglamentario del Sector Administrativo Agropecuario, Pesquero y de Desarrollo Rural, en lo relacionado con el Comité Ejecutivo para la Pesca y se dictan otras disposiciones”</t>
-  </si>
-  <si>
-    <t>"Por el cual se sustituye el Título 4 de la Parte 10 del Libro 2 del Decreto 1071 de 2015, Único Reglamentario del Sector Administrativo Agropecuario, Pesquero y de Desarrollo Rural, en lo relacionado con la elección de los miembros para la conformación de los órganos directivos de los fondos de fomento y de estabilización de precios que administren recursos parafiscales”</t>
   </si>
   <si>
     <t>Grupo Asesor Tribunal Médico Laboral</t>
@@ -901,15 +904,18 @@
   <si>
     <t>Regulación De Tierras</t>
   </si>
+  <si>
+    <t>Por el cual se sustituye el Título 4 de la Parte 10 del Libro 2 del Decreto 1071 de 2015, Único Reglamentario del Sector Administrativo Agropecuario, Pesquero y de Desarrollo Rural, en lo relacionado con la elección de los miembros para la conformación de los órganos directivos de los fondos de fomento y de estabilización de precios que administren recursos parafiscales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,13 +979,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1017,7 +1031,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1051,6 +1065,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1085,9 +1100,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1260,14 +1276,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1311,24 +1333,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1346,33 +1368,33 @@
         <v>45316</v>
       </c>
       <c r="L2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -1390,33 +1412,33 @@
         <v>45621</v>
       </c>
       <c r="L3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -1434,33 +1456,33 @@
         <v>45621</v>
       </c>
       <c r="L4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1478,33 +1500,33 @@
         <v>45621</v>
       </c>
       <c r="L5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -1522,33 +1544,33 @@
         <v>45621</v>
       </c>
       <c r="L6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1566,33 +1588,33 @@
         <v>45621</v>
       </c>
       <c r="L7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1610,33 +1632,33 @@
         <v>45621</v>
       </c>
       <c r="L8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1654,33 +1676,33 @@
         <v>45962</v>
       </c>
       <c r="L9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1698,33 +1720,33 @@
         <v>45962</v>
       </c>
       <c r="L10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1742,33 +1764,33 @@
         <v>45962</v>
       </c>
       <c r="L11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1786,33 +1808,33 @@
         <v>45962</v>
       </c>
       <c r="L12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1830,33 +1852,33 @@
         <v>45962</v>
       </c>
       <c r="L13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1874,33 +1896,33 @@
         <v>45962</v>
       </c>
       <c r="L14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1918,33 +1940,33 @@
         <v>45962</v>
       </c>
       <c r="L15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1962,33 +1984,33 @@
         <v>45962</v>
       </c>
       <c r="L16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -2006,33 +2028,33 @@
         <v>45962</v>
       </c>
       <c r="L17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -2050,33 +2072,33 @@
         <v>45498</v>
       </c>
       <c r="L18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -2094,33 +2116,33 @@
         <v>45498</v>
       </c>
       <c r="L19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2138,33 +2160,33 @@
         <v>45498</v>
       </c>
       <c r="L20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2182,33 +2204,33 @@
         <v>45621</v>
       </c>
       <c r="L21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2226,33 +2248,33 @@
         <v>45621</v>
       </c>
       <c r="L22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2270,33 +2292,33 @@
         <v>45658</v>
       </c>
       <c r="L23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -2314,33 +2336,33 @@
         <v>45717</v>
       </c>
       <c r="L24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N24" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2358,33 +2380,33 @@
         <v>45717</v>
       </c>
       <c r="L25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2402,33 +2424,33 @@
         <v>45621</v>
       </c>
       <c r="L26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -2446,33 +2468,33 @@
         <v>45962</v>
       </c>
       <c r="L27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N27" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2490,33 +2512,33 @@
         <v>45962</v>
       </c>
       <c r="L28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2534,33 +2556,33 @@
         <v>45962</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -2578,33 +2600,33 @@
         <v>45962</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -2622,33 +2644,33 @@
         <v>45962</v>
       </c>
       <c r="L31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -2666,33 +2688,33 @@
         <v>45962</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N32" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -2710,33 +2732,33 @@
         <v>45962</v>
       </c>
       <c r="L33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -2754,33 +2776,33 @@
         <v>45809</v>
       </c>
       <c r="L34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N34" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -2798,33 +2820,33 @@
         <v>45962</v>
       </c>
       <c r="L35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N35" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -2842,33 +2864,33 @@
         <v>45809</v>
       </c>
       <c r="L36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -2886,33 +2908,33 @@
         <v>45621</v>
       </c>
       <c r="L37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -2930,33 +2952,33 @@
         <v>45622</v>
       </c>
       <c r="L38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N38" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -2974,33 +2996,33 @@
         <v>45623</v>
       </c>
       <c r="L39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N39" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -3018,33 +3040,33 @@
         <v>45624</v>
       </c>
       <c r="L40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N40" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -3059,33 +3081,33 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N41" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -3100,33 +3122,33 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N42" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -3141,33 +3163,33 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N43" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -3182,33 +3204,33 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N44" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -3226,33 +3248,33 @@
         <v>45306</v>
       </c>
       <c r="L45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N45" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -3267,33 +3289,33 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N46" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -3308,33 +3330,33 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N47" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -3349,33 +3371,33 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -3390,33 +3412,33 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N49" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -3434,33 +3456,33 @@
         <v>45455</v>
       </c>
       <c r="L50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N50" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -3475,33 +3497,33 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N51" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -3516,33 +3538,33 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N52" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -3557,33 +3579,33 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N53" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -3598,33 +3620,33 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N54" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -3639,33 +3661,33 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N55" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F56" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -3680,33 +3702,33 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N56" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -3721,33 +3743,33 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N57" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -3762,33 +3784,33 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N58" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F59" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -3803,33 +3825,33 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N59" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -3844,33 +3866,33 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N60" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
@@ -3885,33 +3907,33 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N61" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
@@ -3926,33 +3948,33 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N62" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -3967,33 +3989,33 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N63" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
@@ -4008,74 +4030,74 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N64" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" t="s">
+        <v>267</v>
+      </c>
+      <c r="F65" t="s">
+        <v>271</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>276</v>
+      </c>
+      <c r="M65" t="s">
+        <v>278</v>
+      </c>
+      <c r="N65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" t="s">
         <v>208</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>268</v>
       </c>
-      <c r="F65" t="s">
-        <v>272</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" t="s">
-        <v>277</v>
-      </c>
-      <c r="M65" t="s">
-        <v>279</v>
-      </c>
-      <c r="N65" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" t="s">
-        <v>209</v>
-      </c>
-      <c r="E66" t="s">
-        <v>269</v>
-      </c>
       <c r="F66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
@@ -4090,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
